--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.8883248730964467</v>
+        <v>0.8934010152284264</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.9655172413793104</v>
+        <v>0.9734748010610079</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.9719101123595506</v>
+        <v>0.9775280898876404</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.9538461538461539</v>
+        <v>0.9576923076923077</v>
       </c>
       <c r="F89">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>User_Journey</t>
   </si>
@@ -374,6 +374,15 @@
   </si>
   <si>
     <t>Topic_For Capability</t>
+  </si>
+  <si>
+    <t>Department_Belongs_to_Topic</t>
+  </si>
+  <si>
+    <t>Capability_Defined_by_Department</t>
+  </si>
+  <si>
+    <t>Capability_Belongs_to_Topic</t>
   </si>
 </sst>
 </file>
@@ -731,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4008,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -6555,6 +6564,30 @@
         <v>0</v>
       </c>
       <c r="R104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R107">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>User_Journey</t>
   </si>
@@ -241,25 +241,10 @@
     <t>Department_Capability</t>
   </si>
   <si>
-    <t>Department_Real SOP Writer</t>
+    <t>Department_Belongs to Topic</t>
   </si>
   <si>
     <t>Department_Approver</t>
-  </si>
-  <si>
-    <t>Department_NO Counterpart</t>
-  </si>
-  <si>
-    <t>Department_SE Counterpart</t>
-  </si>
-  <si>
-    <t>Department_DK Counterpart</t>
-  </si>
-  <si>
-    <t>Department_NL Counterpart</t>
-  </si>
-  <si>
-    <t>Department_Belongs to Topic</t>
   </si>
   <si>
     <t>Department_Category_Department_Category</t>
@@ -740,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1037,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1228070175438596</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1149,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1759,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01468189233278956</v>
+        <v>0.0162037037037037</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1780,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.003262642740619902</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2187,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0.8807692307692307</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2213,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.8934010152284264</v>
+        <v>0.9101123595505618</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3495,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0.02387267904509284</v>
+        <v>0.01790281329923274</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.9734748010610079</v>
+        <v>0.9667519181585678</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3516,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.005305039787798408</v>
+        <v>0.005115089514066497</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3663,13 +3648,13 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0.0131578947368421</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.02631578947368421</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3687,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <v>0.02631578947368421</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -3858,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0.9938900203665988</v>
+        <v>0.9771863117870723</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -4100,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4188,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -4279,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4300,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -4362,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4436,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4468,16 +4453,16 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
         <v>1</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4503,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.01901140684410646</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4524,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>0.9980988593155894</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>0.003802281368821293</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -4559,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0.01612903225806452</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.03225806451612903</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4583,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="K69">
-        <v>0.03225806451612903</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -4642,13 +4627,13 @@
         <v>0</v>
       </c>
       <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
         <v>1</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -4783,13 +4768,13 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0.008146639511201629</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0.02036659877800407</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4804,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.9979633401221996</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>0.004073319755600814</v>
+        <v>0</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -4816,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -4839,13 +4824,13 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0.01639344262295082</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.03278688524590164</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4860,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>0.03278688524590164</v>
+        <v>0</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -4922,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>0.9821627647714605</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -4951,13 +4936,13 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4972,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -5037,10 +5022,10 @@
         <v>0</v>
       </c>
       <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
         <v>1</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -5096,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -5146,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -5184,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5202,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.9821029082774049</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5231,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>0.05337078651685393</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.9775280898876404</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -5252,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.005617977528089887</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5273,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5320,10 +5305,10 @@
         <v>0</v>
       </c>
       <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
         <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -5405,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.9635036496350365</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5420,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>0.02554744525547445</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0.9899244332493703</v>
+        <v>0</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -5464,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -5553,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -5603,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -5685,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.9576923076923077</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -5700,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.02692307692307692</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5718,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -5800,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5889,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5998,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -6080,31 +6065,31 @@
         <v>0</v>
       </c>
       <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
         <v>1</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -6169,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
         <v>1</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6257,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6291,54 +6276,6 @@
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
       <c r="R100">
         <v>0</v>
       </c>
@@ -6347,55 +6284,7 @@
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
       <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
         <v>0</v>
       </c>
     </row>
@@ -6403,191 +6292,7 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="N102">
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
       <c r="R102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
-      <c r="A103" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="A104" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
-      <c r="A105" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="A106" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="A107" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R107">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>User_Journey</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Employee_Process_To Be Signed By</t>
   </si>
   <si>
-    <t>Employee_Process_Approved by (filled out by PMO)</t>
-  </si>
-  <si>
     <t>Employee_Process_Created By</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
     <t>Department_Approver</t>
   </si>
   <si>
+    <t>Department_Type</t>
+  </si>
+  <si>
     <t>Department_Category_Department_Category</t>
   </si>
   <si>
@@ -268,6 +268,9 @@
     <t>Employee_Belongs to Department</t>
   </si>
   <si>
+    <t>Employee_Belongs to</t>
+  </si>
+  <si>
     <t>Employee_Is Leader of Department</t>
   </si>
   <si>
@@ -280,13 +283,13 @@
     <t>Role_Role</t>
   </si>
   <si>
-    <t>Role_Role Specify</t>
-  </si>
-  <si>
     <t>Role_MC2 Link</t>
   </si>
   <si>
     <t>Role_Has Employee</t>
+  </si>
+  <si>
+    <t>Role_Country or HQ</t>
   </si>
   <si>
     <t>Role_Has Process</t>
@@ -725,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1022,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1134,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.109375</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1744,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0162037037037037</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1765,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.004629629629629629</v>
+        <v>0.002066115702479339</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2110,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0.996551724137931</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2198,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.9101123595505618</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2481,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2537,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2596,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2652,34 +2655,34 @@
         <v>0</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
         <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2729,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2764,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2785,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2820,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2873,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2917,7 +2920,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2929,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2973,13 +2976,13 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3029,13 +3032,13 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>0.05607476635514019</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.5514018691588785</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3047,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3103,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3162,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.984375</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3218,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0.984375</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3274,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3330,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3383,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3430,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.9438444924406048</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3439,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>0.002159827213822894</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3480,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0.01790281329923274</v>
+        <v>0.02</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.9667519181585678</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3501,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.005115089514066497</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -3536,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3557,31 +3560,31 @@
         <v>0</v>
       </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <v>1</v>
-      </c>
-      <c r="K51">
-        <v>0.02</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3592,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3613,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -3637,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3648,13 +3651,13 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0.01298701298701299</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.02597402597402598</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3669,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>0.02597402597402598</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -3725,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3781,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>0.968365553602812</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3843,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0.9771863117870723</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3893,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -3949,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.1612903225806452</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>0.9516129032258065</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -4029,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4085,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4270,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.03225806451612903</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4285,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="K64">
         <v>0.03225806451612903</v>
@@ -4462,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0.9968847352024922</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.004153686396677051</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4488,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0.007604562737642586</v>
+        <v>0.007029876977152899</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.01901140684410646</v>
+        <v>0.00351493848857645</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4509,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.9980988593155894</v>
+        <v>0.9982425307557118</v>
       </c>
       <c r="K68">
-        <v>0.003802281368821293</v>
+        <v>0.00351493848857645</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -4544,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0.01639344262295082</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.03278688524590164</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4565,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>0.03278688524590164</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -4600,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4621,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -4633,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -4689,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -4742,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4798,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4907,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.9821627647714605</v>
+        <v>0.9771547248182763</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4936,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0.003875968992248062</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.9767441860465116</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4957,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0.04651162790697674</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4998,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.8896551724137931</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5013,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>0.03793103448275862</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5025,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -5081,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -5131,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0.9898989898989899</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -5169,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5187,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>0.9535864978902954</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5225,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5258,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5308,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
         <v>1</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5358,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5390,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.9635036496350365</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5405,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.02554744525547445</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5446,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5461,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5703,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -5759,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -5785,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5841,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5874,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5930,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -6089,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -6145,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -6157,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6213,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6242,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6276,6 +6279,54 @@
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
       <c r="R100">
         <v>0</v>
       </c>
@@ -6284,7 +6335,7 @@
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J101">
+      <c r="R101">
         <v>0</v>
       </c>
     </row>
@@ -6292,7 +6343,15 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R102">
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R103">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>User_Journey</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Business_Model_Has User Journey Parts</t>
-  </si>
-  <si>
-    <t>Business_Model_Has Employee Journey Part</t>
   </si>
   <si>
     <t>Strategy_Strategy</t>
@@ -728,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2976,13 +2973,13 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0.05607476635514019</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.5514018691588785</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2994,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3050,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3109,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>0.984375</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3165,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0.984375</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3221,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3277,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3330,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3377,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.9438444924406048</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3386,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>0.002159827213822894</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3427,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.9438444924406048</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3448,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.002159827213822894</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -3483,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3504,31 +3501,31 @@
         <v>0</v>
       </c>
       <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
         <v>1</v>
-      </c>
-      <c r="K50">
-        <v>0.02</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3539,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3560,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -3584,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3595,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0.009900990099009901</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.009900990099009901</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3616,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>0.0198019801980198</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -3672,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3728,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>0.968365553602812</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3790,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.968365553602812</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3840,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3896,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.1612903225806452</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>0.9516129032258065</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3976,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4032,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4120,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -4176,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -4211,13 +4208,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4232,10 +4229,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -4267,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4288,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.9838709677419355</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4350,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4409,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>0.9968847352024922</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.004153686396677051</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -4435,13 +4432,13 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.007029876977152899</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.00351493848857645</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4456,22 +4453,22 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>0.9982425307557118</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>0.00351493848857645</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.9968847352024922</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0.004153686396677051</v>
+        <v>0</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4491,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0.007029876977152899</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.00351493848857645</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4512,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.9982425307557118</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>0.00351493848857645</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -4547,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4568,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -4603,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0.01639344262295082</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.01639344262295082</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4624,19 +4621,19 @@
         <v>0</v>
       </c>
       <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
         <v>1</v>
-      </c>
-      <c r="K70">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -4692,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -4745,13 +4742,13 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4801,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.004716981132075472</v>
+        <v>0</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4854,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>0.9771547248182763</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4910,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.9771547248182763</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4945,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.8896551724137931</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4960,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>0.03793103448275862</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -5001,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.8896551724137931</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5016,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.03793103448275862</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5028,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -5084,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -5134,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>0.9535864978902954</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -5172,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5190,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.9535864978902954</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5228,40 +5225,40 @@
         <v>0</v>
       </c>
       <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
         <v>1</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5305,19 +5302,19 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5361,13 +5358,13 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5393,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5408,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5449,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.8681318681318682</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5464,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.02197802197802198</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5706,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -5762,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -5788,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5844,40 +5841,40 @@
         <v>0</v>
       </c>
       <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
         <v>1</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5933,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -6092,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -6148,19 +6145,19 @@
         <v>0</v>
       </c>
       <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
         <v>1</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6216,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6245,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6279,54 +6276,6 @@
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
       <c r="R100">
         <v>0</v>
       </c>
@@ -6335,7 +6284,7 @@
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="R101">
+      <c r="J101">
         <v>0</v>
       </c>
     </row>
@@ -6343,15 +6292,7 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
-      <c r="A103" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R103">
+      <c r="R102">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>User_Journey</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Business_Model_Has User Journey Parts</t>
+  </si>
+  <si>
+    <t>Business_Model_Has Employee Journey Part</t>
   </si>
   <si>
     <t>Strategy_Strategy</t>
@@ -725,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1765,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.002066115702479339</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2973,13 +2976,13 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2991,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3047,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3106,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0.984375</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3162,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.984375</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3218,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3274,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3327,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3374,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0.9438444924406048</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3383,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.002159827213822894</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3424,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.9438444924406048</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3445,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0.004319654427645789</v>
       </c>
       <c r="K49">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -3480,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3501,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -3525,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3536,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0.009900990099009901</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.009900990099009901</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3557,31 +3560,31 @@
         <v>0</v>
       </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <v>1</v>
-      </c>
-      <c r="K51">
-        <v>0.0198019801980198</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3592,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3613,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -3669,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3725,13 +3728,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.968365553602812</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3787,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0.968365553602812</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3837,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.1612903225806452</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>0.9516129032258065</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3893,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3973,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4029,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4117,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -4173,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -4208,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4229,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.9838709677419355</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -4264,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4285,13 +4288,13 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4347,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4406,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.9968847352024922</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>0.004153686396677051</v>
+        <v>0</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -4432,13 +4435,13 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0.007029876977152899</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.00351493848857645</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4453,22 +4456,22 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.9982425307557118</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>0.00351493848857645</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>0.9968847352024922</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.004153686396677051</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4488,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.007029876977152899</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.01757469244288225</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4509,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>0.9982425307557118</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>0.00351493848857645</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -4544,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0.01639344262295082</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.01639344262295082</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4565,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>0.03278688524590164</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -4600,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4621,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -4633,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -4689,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -4742,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0.004716981132075472</v>
+        <v>0</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4798,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4851,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0.9771547248182763</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4907,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>0.9771547248182763</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4942,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.8896551724137931</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4957,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0.03793103448275862</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4998,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.8896551724137931</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5013,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5025,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -5081,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -5131,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0.9535864978902954</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -5169,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5187,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>0.9535864978902954</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5225,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5258,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5302,19 +5305,19 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
         <v>1</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5358,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5390,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.8681318681318682</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5405,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.02197802197802198</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5446,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5461,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5703,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -5759,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -5785,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5841,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5874,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5930,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -6089,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -6145,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -6157,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6213,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6242,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6276,6 +6279,54 @@
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
       <c r="R100">
         <v>0</v>
       </c>
@@ -6284,7 +6335,7 @@
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J101">
+      <c r="R101">
         <v>0</v>
       </c>
     </row>
@@ -6292,7 +6343,15 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R102">
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R103">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>User_Journey</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Employee_Process_Related Document</t>
-  </si>
-  <si>
-    <t>Employee_Process_To Be Signed By</t>
   </si>
   <si>
     <t>Employee_Process_Created By</t>
@@ -728,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1768,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.004132231404958678</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2113,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.996551724137931</v>
+        <v>0.9965156794425087</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.003448275862068965</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2201,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.8611111111111112</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2428,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2484,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2543,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2599,34 +2596,34 @@
         <v>0</v>
       </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
         <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2676,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2711,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2732,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2767,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2820,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2864,7 +2861,7 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2876,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2920,13 +2917,13 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2976,13 +2973,13 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0.05607476635514019</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.5514018691588785</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2994,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3050,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3109,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>0.984375</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3165,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0.984375</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3221,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3277,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3330,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3377,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3386,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3427,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.9438444924406048</v>
+        <v>0.02</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3448,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.004319654427645789</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -3483,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3504,31 +3501,31 @@
         <v>0</v>
       </c>
       <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
         <v>1</v>
-      </c>
-      <c r="K50">
-        <v>0.02</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3539,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3560,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3584,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3595,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0.009900990099009901</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.0198019801980198</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3616,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>0.0198019801980198</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -3672,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3728,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>0.9686411149825784</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3790,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.968365553602812</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3840,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3896,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.1612903225806452</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>0.9516129032258065</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3976,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4032,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4120,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -4176,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -4211,13 +4208,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4232,10 +4229,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -4267,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4288,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.9838709677419355</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4350,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4409,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>0.996900826446281</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -4435,13 +4432,13 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.006968641114982578</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.01742160278745645</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4456,22 +4453,22 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.9968847352024922</v>
+        <v>0.001742160278745645</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0.004153686396677051</v>
+        <v>0</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4491,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0.007029876977152899</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.01757469244288225</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4512,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.9982425307557118</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>0.00351493848857645</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -4547,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4568,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4603,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0.01639344262295082</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.03278688524590164</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4624,19 +4621,19 @@
         <v>0</v>
       </c>
       <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
         <v>1</v>
-      </c>
-      <c r="K70">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -4692,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -4736,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -4745,13 +4742,13 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4801,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.004716981132075472</v>
+        <v>0</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4854,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4910,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.9771547248182763</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4945,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.8885017421602788</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4960,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>0.04181184668989547</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -5001,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.8896551724137931</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5016,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.04137931034482759</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5028,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -5084,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -5134,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>0.954070981210856</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -5172,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5190,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.9535864978902954</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5228,40 +5225,40 @@
         <v>0</v>
       </c>
       <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
         <v>1</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5305,19 +5302,19 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5361,13 +5358,13 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5393,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.8736842105263158</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5408,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>0.02456140350877193</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5449,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.8681318681318682</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5464,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.02564102564102564</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5706,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -5762,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -5788,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5844,40 +5841,40 @@
         <v>0</v>
       </c>
       <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
         <v>1</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5933,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -6092,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -6148,19 +6145,19 @@
         <v>0</v>
       </c>
       <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
         <v>1</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6216,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6245,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6279,54 +6276,6 @@
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
       <c r="R100">
         <v>0</v>
       </c>
@@ -6335,7 +6284,7 @@
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="R101">
+      <c r="J101">
         <v>0</v>
       </c>
     </row>
@@ -6343,15 +6292,7 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
-      <c r="A103" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R103">
+      <c r="R102">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>User_Journey</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Employee_Process_Related Document</t>
+  </si>
+  <si>
+    <t>Employee_Process_Workflow Approval</t>
   </si>
   <si>
     <t>Employee_Process_Created By</t>
@@ -725,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2425,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2481,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2540,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2596,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2623,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2673,13 +2676,13 @@
         <v>0</v>
       </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
         <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2708,28 +2711,28 @@
         <v>0</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2764,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2817,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2861,19 +2864,19 @@
         <v>54</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2917,13 +2920,13 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.05607476635514019</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.5514018691588785</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2973,13 +2976,13 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2991,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3047,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3106,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0.984375</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3162,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.984375</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3218,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3274,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3327,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3374,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0.896551724137931</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3383,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.008620689655172414</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3424,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.02</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3445,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="K49">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -3480,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3501,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -3525,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3536,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0.009433962264150943</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.01886792452830189</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3557,31 +3560,31 @@
         <v>0</v>
       </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <v>1</v>
-      </c>
-      <c r="K51">
-        <v>0.01886792452830189</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3592,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3613,16 +3616,16 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3669,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3725,13 +3728,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.9686411149825784</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3787,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0.9686411149825784</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3837,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.1612903225806452</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>0.9516129032258065</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3893,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3973,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4029,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4117,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -4173,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -4208,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4229,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.9838709677419355</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -4264,13 +4267,13 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4285,13 +4288,13 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4347,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4406,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.996900826446281</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>0.004132231404958678</v>
+        <v>0</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -4432,13 +4435,13 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0.006968641114982578</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.01742160278745645</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4453,22 +4456,22 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.9982578397212544</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>0.003484320557491289</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.001742160278745645</v>
+        <v>0.996900826446281</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4488,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.006968641114982578</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.01742160278745645</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4509,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>0.001742160278745645</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4544,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0.01515151515151515</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4565,16 +4568,16 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.01515151515151515</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4600,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4621,19 +4624,19 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -4689,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -4733,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0.004672897196261682</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -4742,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0.004672897196261682</v>
+        <v>0</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4789,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4798,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4851,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0.9772727272727273</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4907,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4942,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.8885017421602788</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4957,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0.04181184668989547</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4998,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.8885017421602788</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5013,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>0.04181184668989547</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5025,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -5081,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -5131,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0.954070981210856</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -5169,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5187,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>0.954070981210856</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5225,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5258,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5302,19 +5305,19 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.02325581395348837</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
         <v>1</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5358,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5390,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.8736842105263158</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5405,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.02456140350877193</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5446,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.8736842105263158</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5461,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>0.02456140350877193</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5703,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -5759,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -5785,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5841,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5874,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5930,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -6089,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -6145,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -6157,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6213,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6242,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -6276,6 +6279,54 @@
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
       <c r="R100">
         <v>0</v>
       </c>
@@ -6284,7 +6335,7 @@
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J101">
+      <c r="R101">
         <v>0</v>
       </c>
     </row>
@@ -6292,7 +6343,15 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R102">
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R103">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007874015748031496</v>
+        <v>0.008</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2113,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9965156794425087</v>
+        <v>0.9965986394557823</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.003484320557491289</v>
+        <v>0.003401360544217687</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.863013698630137</v>
+        <v>0.8561151079136691</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.896551724137931</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.008620689655172414</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.8885017421602788</v>
+        <v>0.891156462585034</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.04181184668989547</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.8736842105263158</v>
+        <v>0.8714285714285714</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.02456140350877193</v>
+        <v>0.025</v>
       </c>
       <c r="K85">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.008</v>
+        <v>0.008032128514056224</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2113,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9965986394557823</v>
+        <v>0.9968051118210862</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.003401360544217687</v>
+        <v>0.003194888178913738</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.8947368421052632</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.008771929824561403</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.9686411149825784</v>
+        <v>0.9689655172413794</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -4465,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.996900826446281</v>
+        <v>0.9969574036511156</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0.004132231404958678</v>
+        <v>0.004056795131845842</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4491,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0.006968641114982578</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.01742160278745645</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4512,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.9982578397212544</v>
+        <v>0.9982758620689656</v>
       </c>
       <c r="K68">
-        <v>0.003484320557491289</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.001742160278745645</v>
+        <v>0.001724137931034483</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.004672897196261682</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.004672897196261682</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.9772727272727273</v>
+        <v>0.9756592292089249</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.891156462585034</v>
+        <v>0.8977635782747604</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.04081632653061224</v>
+        <v>0.03833865814696485</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.8714285714285714</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.025</v>
+        <v>0.02464788732394366</v>
       </c>
       <c r="K85">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.008032128514056224</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2113,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9968051118210862</v>
+        <v>0.9970059880239521</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.003194888178913738</v>
+        <v>0.002994011976047904</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.8561151079136691</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.896551724137931</v>
+        <v>0.8991596638655462</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.008620689655172414</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3595,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0.009433962264150943</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.01886792452830189</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3619,13 +3619,13 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>0.01886792452830189</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.009433962264150943</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.9689655172413794</v>
+        <v>0.9720767888307156</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -4465,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.9969574036511156</v>
+        <v>0.9969418960244648</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0.004056795131845842</v>
+        <v>0.004077471967380225</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4491,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0.006896551724137931</v>
+        <v>0.006980802792321117</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.01724137931034483</v>
+        <v>0.01745200698080279</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4512,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.9982758620689656</v>
+        <v>0.9982547993019197</v>
       </c>
       <c r="K68">
-        <v>0.003448275862068965</v>
+        <v>0.003490401396160559</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.001724137931034483</v>
+        <v>0.001745200698080279</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.004651162790697674</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.004651162790697674</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.9756592292089249</v>
+        <v>0.9785932721712538</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.8977635782747604</v>
+        <v>0.9041916167664671</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.03833865814696485</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.954070981210856</v>
+        <v>0.9596602972399151</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.8732394366197183</v>
+        <v>0.872791519434629</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.02464788732394366</v>
+        <v>0.02473498233215548</v>
       </c>
       <c r="K85">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -2113,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9970059880239521</v>
+        <v>0.9971098265895953</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.002994011976047904</v>
+        <v>0.002890173410404624</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.9041916167664671</v>
+        <v>0.9075144508670521</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.03592814371257485</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="K77">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007843137254901961</v>
+        <v>0.0078125</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.002127659574468085</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9971098265895953</v>
+        <v>0.997872340425532</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.002890173410404624</v>
+        <v>0.002127659574468085</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.8518518518518519</v>
+        <v>0.8581560283687943</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.8991596638655462</v>
+        <v>0.899581589958159</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.008403361344537815</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3595,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0.009523809523809525</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.01904761904761905</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3619,13 +3619,13 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>0.01904761904761905</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.009523809523809525</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.9720767888307156</v>
+        <v>0.9721254355400697</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4459,19 +4459,19 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.9969418960244648</v>
+        <v>0.9969635627530364</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0.004077471967380225</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4491,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0.006980802792321117</v>
+        <v>0.006968641114982578</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.01745200698080279</v>
+        <v>0.01742160278745645</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4512,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.9982547993019197</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="K68">
-        <v>0.003490401396160559</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.001745200698080279</v>
+        <v>0.001742160278745645</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4792,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.004694835680751174</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.004694835680751174</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.9785932721712538</v>
+        <v>0.9787449392712551</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.9075144508670521</v>
+        <v>0.9319148936170213</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.03468208092485549</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.872791519434629</v>
+        <v>0.8762886597938144</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.02473498233215548</v>
+        <v>0.02405498281786942</v>
       </c>
       <c r="K85">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0078125</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.002127659574468085</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.997872340425532</v>
+        <v>0.9979466119096509</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.002127659574468085</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.8581560283687943</v>
+        <v>0.8601398601398601</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.899581589958159</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.008368200836820083</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4459,19 +4459,19 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0.004048582995951417</v>
+        <v>0.004004004004004004</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.9969635627530364</v>
+        <v>0.996996996996997</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0.004048582995951417</v>
+        <v>0.004004004004004004</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4792,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.004629629629629629</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="K73">
-        <v>0.004629629629629629</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.004629629629629629</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.9787449392712551</v>
+        <v>0.977977977977978</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.9319148936170213</v>
+        <v>0.9342915811088296</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.02553191489361702</v>
+        <v>0.02464065708418891</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.8762886597938144</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.02405498281786942</v>
+        <v>0.02356902356902357</v>
       </c>
       <c r="K85">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007633587786259542</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.002053388090349076</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9979466119096509</v>
+        <v>0.9983525535420099</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.002053388090349076</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.8601398601398601</v>
+        <v>0.9440559440559441</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0.984375</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.9076923076923077</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0.1612903225806452</v>
       </c>
       <c r="K57">
-        <v>0.9516129032258065</v>
+        <v>1</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -4459,19 +4459,19 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0.004004004004004004</v>
+        <v>0.00390625</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.996996996996997</v>
+        <v>0.9970703125</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0.004004004004004004</v>
+        <v>0.00390625</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4792,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.004587155963302753</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="K73">
-        <v>0.004587155963302753</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.004587155963302753</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.977977977977978</v>
+        <v>0.974609375</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.9342915811088296</v>
+        <v>0.9555189456342669</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.02464065708418891</v>
+        <v>0.01976935749588138</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.8787878787878788</v>
+        <v>0.9530201342281879</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.02356902356902357</v>
+        <v>0.02348993288590604</v>
       </c>
       <c r="K85">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007575757575757576</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.001647446457990115</v>
+        <v>0.01576576576576576</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9983525535420099</v>
+        <v>0.9988738738738738</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.001647446457990115</v>
+        <v>0.001126126126126126</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.9440559440559441</v>
+        <v>0.9432624113475178</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0.9841269841269841</v>
+        <v>0.984375</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.9538461538461539</v>
+        <v>0.948339483394834</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.007692307692307693</v>
+        <v>0.007380073800738007</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4792,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.004424778761061947</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="K73">
-        <v>0.004424778761061947</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.004424778761061947</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.9555189456342669</v>
+        <v>0.9662162162162162</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.01976935749588138</v>
+        <v>0.01238738738738739</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.9530201342281879</v>
+        <v>0.9526813880126183</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.02348993288590604</v>
+        <v>0.0220820189274448</v>
       </c>
       <c r="K85">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.9432624113475178</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.948339483394834</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.007380073800738007</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4792,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.004464285714285714</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="K73">
-        <v>0.004464285714285714</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.004464285714285714</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.9662162162162162</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.9526813880126183</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>User_Journey</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Employee_Process_Modified By</t>
+  </si>
+  <si>
+    <t>Employee_Process_Workflow Status</t>
   </si>
   <si>
     <t>Country_Country</t>
@@ -728,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1768,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007633587786259542</v>
+        <v>0.007547169811320755</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2107,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.01576576576576576</v>
+        <v>0.01552106430155211</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9988738738738738</v>
+        <v>0.9988913525498891</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.001126126126126126</v>
+        <v>0.001108647450110865</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2484,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2540,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2599,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2655,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2682,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2732,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
         <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -2767,28 +2770,28 @@
         <v>0</v>
       </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
         <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2823,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2876,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2920,19 +2923,19 @@
         <v>55</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2976,13 +2979,13 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0.05607476635514019</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.5514018691588785</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3032,13 +3035,13 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3050,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3106,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3165,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0.984375</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3221,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.984375</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3277,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3333,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3386,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3433,22 +3436,22 @@
         <v>0</v>
       </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>1</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.007633587786259542</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3483,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3504,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0.007547169811320755</v>
       </c>
       <c r="K50">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -3539,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3560,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -3584,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3595,13 +3598,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0.009433962264150943</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.01886792452830189</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3616,31 +3619,31 @@
         <v>0</v>
       </c>
       <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>1</v>
-      </c>
-      <c r="K52">
-        <v>0.01886792452830189</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3651,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3672,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3728,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3784,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.9721254355400697</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3846,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0.9721254355400697</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3896,16 +3899,16 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.1612903225806452</v>
+        <v>0</v>
       </c>
       <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <v>1</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
       <c r="M57">
-        <v>0.1612903225806452</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3952,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4032,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4088,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4176,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4232,16 +4235,16 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4267,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4288,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.9838709677419355</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -4323,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -4344,13 +4347,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4406,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -4459,19 +4462,19 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.9970703125</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4491,13 +4494,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0.006968641114982578</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.01742160278745645</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4512,22 +4515,22 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.9982578397212544</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>0.003484320557491289</v>
+        <v>0.00390625</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.001742160278745645</v>
+        <v>0.9970703125</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.00390625</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4547,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.006968641114982578</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.01742160278745645</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4568,16 +4571,16 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>0.001742160278745645</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4603,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0.01515151515151515</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4624,16 +4627,16 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.01515151515151515</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4659,13 +4662,13 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4680,19 +4683,19 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -4748,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -4792,22 +4795,22 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.004484304932735426</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>0.004484304932735426</v>
+        <v>0</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.004484304932735426</v>
+        <v>0</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4848,22 +4851,22 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4910,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.974609375</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4966,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>0.974609375</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -5001,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5016,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.01238738738738739</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5057,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5072,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -5084,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -5140,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -5190,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.9596602972399151</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5228,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5246,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>0.9596602972399151</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -5284,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -5317,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5361,19 +5364,19 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.02325581395348837</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
         <v>1</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -5417,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -5449,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5464,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.0220820189274448</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5505,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5520,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5762,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -5818,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -5844,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -5900,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -5933,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -5989,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -6148,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -6204,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -6216,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6272,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="R99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6301,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -6335,6 +6338,54 @@
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
       <c r="R101">
         <v>0</v>
       </c>
@@ -6343,7 +6394,7 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J102">
+      <c r="R102">
         <v>0</v>
       </c>
     </row>
@@ -6351,7 +6402,15 @@
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R103">
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R104">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007547169811320755</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2110,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.01552106430155211</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9988913525498891</v>
+        <v>0.9989010989010989</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.001108647450110865</v>
+        <v>0.001098901098901099</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.9931034482758621</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0.9962406015037594</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.007547169811320755</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0.9967032967032967</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.01219512195121951</v>
+        <v>0.01208791208791209</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0.9969135802469136</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.02173913043478261</v>
+        <v>0.02160493827160494</v>
       </c>
       <c r="K86">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -2110,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.01538461538461539</v>
+        <v>0.01530054644808743</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9989010989010989</v>
+        <v>0.9989071038251366</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.001098901098901099</v>
+        <v>0.001092896174863388</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.9967032967032967</v>
+        <v>0.9967213114754099</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.01208791208791209</v>
+        <v>0.01202185792349727</v>
       </c>
       <c r="K78">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007518796992481203</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2110,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.01530054644808743</v>
+        <v>0.01520086862106406</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9989071038251366</v>
+        <v>0.997828447339848</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.001092896174863388</v>
+        <v>0.001085776330076004</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.9962406015037594</v>
+        <v>0.9962546816479401</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.007518796992481203</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.9967213114754099</v>
+        <v>0.995656894679696</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.01202185792349727</v>
+        <v>0.01194353963083605</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.9969135802469136</v>
+        <v>0.9939393939393939</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.02160493827160494</v>
+        <v>0.02121212121212121</v>
       </c>
       <c r="K86">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,44 +14,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+  <si>
+    <t>Employee_Process</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Capability</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Business_Model</t>
+  </si>
+  <si>
+    <t>Department_Category</t>
+  </si>
   <si>
     <t>User_Journey</t>
   </si>
   <si>
+    <t>Process_Category</t>
+  </si>
+  <si>
     <t>User_Process</t>
   </si>
   <si>
-    <t>Process_Category</t>
-  </si>
-  <si>
-    <t>Employee_Process</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Business_Model</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Capability</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Department_Category</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -67,6 +67,186 @@
     <t>Topic</t>
   </si>
   <si>
+    <t>Employee_Process_Employee_Process</t>
+  </si>
+  <si>
+    <t>Employee_Process_MC2 Link</t>
+  </si>
+  <si>
+    <t>Employee_Process_Process Category</t>
+  </si>
+  <si>
+    <t>Employee_Process_Process Flow</t>
+  </si>
+  <si>
+    <t>Employee_Process_Process Summary</t>
+  </si>
+  <si>
+    <t>Employee_Process_Has KPI</t>
+  </si>
+  <si>
+    <t>Employee_Process_Involved Stakeholders</t>
+  </si>
+  <si>
+    <t>Employee_Process_Uses System</t>
+  </si>
+  <si>
+    <t>Employee_Process_Has Subprocess</t>
+  </si>
+  <si>
+    <t>Employee_Process_Related Document</t>
+  </si>
+  <si>
+    <t>Employee_Process_Workflow Approval</t>
+  </si>
+  <si>
+    <t>Employee_Process_Created By</t>
+  </si>
+  <si>
+    <t>Employee_Process_Modified By</t>
+  </si>
+  <si>
+    <t>Employee_Process_Workflow Status</t>
+  </si>
+  <si>
+    <t>Role_Role</t>
+  </si>
+  <si>
+    <t>Role_MC2 Link</t>
+  </si>
+  <si>
+    <t>Role_Has Employee</t>
+  </si>
+  <si>
+    <t>Role_Country or HQ</t>
+  </si>
+  <si>
+    <t>Role_Has Process</t>
+  </si>
+  <si>
+    <t>Employee_Employee</t>
+  </si>
+  <si>
+    <t>Employee_MC2 Link</t>
+  </si>
+  <si>
+    <t>Employee_Has Role</t>
+  </si>
+  <si>
+    <t>Employee_Belongs to Department</t>
+  </si>
+  <si>
+    <t>Employee_Belongs to</t>
+  </si>
+  <si>
+    <t>Employee_Is Leader of Department</t>
+  </si>
+  <si>
+    <t>Employee_Works in City</t>
+  </si>
+  <si>
+    <t>Employee_check</t>
+  </si>
+  <si>
+    <t>Department_Department</t>
+  </si>
+  <si>
+    <t>Department_MC2 Link</t>
+  </si>
+  <si>
+    <t>Department_Belongs to Department</t>
+  </si>
+  <si>
+    <t>Department_Has Employee</t>
+  </si>
+  <si>
+    <t>Department_Has Leader</t>
+  </si>
+  <si>
+    <t>Department_Belongs to Department_Class</t>
+  </si>
+  <si>
+    <t>Department_Capability</t>
+  </si>
+  <si>
+    <t>Department_Belongs to Topic</t>
+  </si>
+  <si>
+    <t>Department_Approver</t>
+  </si>
+  <si>
+    <t>Department_Type</t>
+  </si>
+  <si>
+    <t>Capability_Capability</t>
+  </si>
+  <si>
+    <t>Capability_MC2 Link</t>
+  </si>
+  <si>
+    <t>Capability_Implements Strategy</t>
+  </si>
+  <si>
+    <t>Capability_Implemented by Process</t>
+  </si>
+  <si>
+    <t>Capability_Defined by Department</t>
+  </si>
+  <si>
+    <t>Capability_Belongs to Topic</t>
+  </si>
+  <si>
+    <t>Strategy_Strategy</t>
+  </si>
+  <si>
+    <t>Strategy_MC2 Link</t>
+  </si>
+  <si>
+    <t>Strategy_Implemented by Capabilities</t>
+  </si>
+  <si>
+    <t>Strategy_Can Edit</t>
+  </si>
+  <si>
+    <t>Country_Country</t>
+  </si>
+  <si>
+    <t>Country_MC2 Link</t>
+  </si>
+  <si>
+    <t>Country_Has Business Model</t>
+  </si>
+  <si>
+    <t>Country_Has Car Models</t>
+  </si>
+  <si>
+    <t>Country_Has City</t>
+  </si>
+  <si>
+    <t>Business_Model_Business_Model</t>
+  </si>
+  <si>
+    <t>Business_Model_MC2 Link</t>
+  </si>
+  <si>
+    <t>Business_Model_Availble in Countries</t>
+  </si>
+  <si>
+    <t>Business_Model_Has User Journey Parts</t>
+  </si>
+  <si>
+    <t>Business_Model_Has Employee Journey Part</t>
+  </si>
+  <si>
+    <t>Department_Category_Department_Category</t>
+  </si>
+  <si>
+    <t>Department_Category_MC2 Link</t>
+  </si>
+  <si>
+    <t>Department_Category_Has Departments</t>
+  </si>
+  <si>
     <t>User_Journey_User_Journey</t>
   </si>
   <si>
@@ -79,12 +259,21 @@
     <t>User_Journey_Matches with Employee Journey</t>
   </si>
   <si>
-    <t>User_Journey_Has User Processes</t>
-  </si>
-  <si>
     <t>User_Journey_Can Edit</t>
   </si>
   <si>
+    <t>Process_Category_Process_Category</t>
+  </si>
+  <si>
+    <t>Process_Category_MC2 Link</t>
+  </si>
+  <si>
+    <t>Process_Category_For Business Model</t>
+  </si>
+  <si>
+    <t>Process_Category_For User Journey</t>
+  </si>
+  <si>
     <t>User_Process_User_Process</t>
   </si>
   <si>
@@ -104,198 +293,6 @@
   </si>
   <si>
     <t>User_Process_Can Edit</t>
-  </si>
-  <si>
-    <t>Process_Category_Process_Category</t>
-  </si>
-  <si>
-    <t>Process_Category_MC2 Link</t>
-  </si>
-  <si>
-    <t>Process_Category_For Business Model</t>
-  </si>
-  <si>
-    <t>Process_Category_For User Journey</t>
-  </si>
-  <si>
-    <t>Employee_Process_Employee_Process</t>
-  </si>
-  <si>
-    <t>Employee_Process_MC2 Link</t>
-  </si>
-  <si>
-    <t>Employee_Process_Process Category</t>
-  </si>
-  <si>
-    <t>Employee_Process_Process Flow</t>
-  </si>
-  <si>
-    <t>Employee_Process_Process Summary</t>
-  </si>
-  <si>
-    <t>Employee_Process_Has KPI</t>
-  </si>
-  <si>
-    <t>Employee_Process_Involved Stakeholders</t>
-  </si>
-  <si>
-    <t>Employee_Process_Uses System</t>
-  </si>
-  <si>
-    <t>Employee_Process_Has Subprocess</t>
-  </si>
-  <si>
-    <t>Employee_Process_Related Document</t>
-  </si>
-  <si>
-    <t>Employee_Process_Workflow Approval</t>
-  </si>
-  <si>
-    <t>Employee_Process_Created By</t>
-  </si>
-  <si>
-    <t>Employee_Process_Modified By</t>
-  </si>
-  <si>
-    <t>Employee_Process_Workflow Status</t>
-  </si>
-  <si>
-    <t>Country_Country</t>
-  </si>
-  <si>
-    <t>Country_MC2 Link</t>
-  </si>
-  <si>
-    <t>Country_Has Business Model</t>
-  </si>
-  <si>
-    <t>Country_Has Car Models</t>
-  </si>
-  <si>
-    <t>Country_Has City</t>
-  </si>
-  <si>
-    <t>Business_Model_Business_Model</t>
-  </si>
-  <si>
-    <t>Business_Model_MC2 Link</t>
-  </si>
-  <si>
-    <t>Business_Model_Availble in Countries</t>
-  </si>
-  <si>
-    <t>Business_Model_Has User Journey Parts</t>
-  </si>
-  <si>
-    <t>Business_Model_Has Employee Journey Part</t>
-  </si>
-  <si>
-    <t>Strategy_Strategy</t>
-  </si>
-  <si>
-    <t>Strategy_MC2 Link</t>
-  </si>
-  <si>
-    <t>Strategy_Implemented by Capabilities</t>
-  </si>
-  <si>
-    <t>Strategy_Can Edit</t>
-  </si>
-  <si>
-    <t>Capability_Capability</t>
-  </si>
-  <si>
-    <t>Capability_MC2 Link</t>
-  </si>
-  <si>
-    <t>Capability_Implements Strategy</t>
-  </si>
-  <si>
-    <t>Capability_Implemented by Process</t>
-  </si>
-  <si>
-    <t>Capability_Defined by Department</t>
-  </si>
-  <si>
-    <t>Capability_Belongs to Topic</t>
-  </si>
-  <si>
-    <t>Department_Department</t>
-  </si>
-  <si>
-    <t>Department_MC2 Link</t>
-  </si>
-  <si>
-    <t>Department_Belongs to Department</t>
-  </si>
-  <si>
-    <t>Department_Has Employee</t>
-  </si>
-  <si>
-    <t>Department_Has Leader</t>
-  </si>
-  <si>
-    <t>Department_Belongs to Department_Class</t>
-  </si>
-  <si>
-    <t>Department_Capability</t>
-  </si>
-  <si>
-    <t>Department_Belongs to Topic</t>
-  </si>
-  <si>
-    <t>Department_Approver</t>
-  </si>
-  <si>
-    <t>Department_Type</t>
-  </si>
-  <si>
-    <t>Department_Category_Department_Category</t>
-  </si>
-  <si>
-    <t>Department_Category_MC2 Link</t>
-  </si>
-  <si>
-    <t>Department_Category_Has Departments</t>
-  </si>
-  <si>
-    <t>Employee_Employee</t>
-  </si>
-  <si>
-    <t>Employee_MC2 Link</t>
-  </si>
-  <si>
-    <t>Employee_Has Role</t>
-  </si>
-  <si>
-    <t>Employee_Belongs to Department</t>
-  </si>
-  <si>
-    <t>Employee_Belongs to</t>
-  </si>
-  <si>
-    <t>Employee_Is Leader of Department</t>
-  </si>
-  <si>
-    <t>Employee_Works in City</t>
-  </si>
-  <si>
-    <t>Employee_check</t>
-  </si>
-  <si>
-    <t>Role_Role</t>
-  </si>
-  <si>
-    <t>Role_MC2 Link</t>
-  </si>
-  <si>
-    <t>Role_Has Employee</t>
-  </si>
-  <si>
-    <t>Role_Country or HQ</t>
-  </si>
-  <si>
-    <t>Role_Has Process</t>
   </si>
   <si>
     <t>City_City</t>
@@ -731,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -919,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -963,13 +960,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1022,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1134,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.9978425026968716</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1155,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.015625</v>
+        <v>0.0151024811218986</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1170,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.001078748651564185</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1226,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1243,13 +1240,13 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.9933774834437086</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2017543859649123</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1523,13 +1520,13 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1582,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1603,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1618,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1650,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1691,13 +1688,13 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02857142857142857</v>
+        <v>0.974609375</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1756,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1771,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007462686567164179</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1803,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.9946062567421791</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1812,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.01186623516720604</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1865,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1880,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1974,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.9970703125</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1995,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.00390625</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2010,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.00390625</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2027,16 +2024,16 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.01742160278745645</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.001742160278745645</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2051,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2060,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.006968641114982578</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2110,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.01520086862106406</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.997828447339848</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.001085776330076004</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2139,16 +2136,16 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2163,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2172,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2204,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.9931034482758621</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2231,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2307,16 +2304,16 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2331,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2340,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2428,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2481,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.9721254355400697</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2537,13 +2534,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2590,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2611,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2658,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2741,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
         <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2791,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2826,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2879,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2935,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2979,22 +2976,22 @@
         <v>56</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3035,16 +3032,16 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>0.05607476635514019</v>
+        <v>0.9963369963369964</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.5514018691588785</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.007326007326007326</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3091,7 +3088,7 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3100,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3109,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3124,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3195,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3218,13 +3215,13 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0.984375</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3327,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.984375</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3336,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3492,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.9962546816479401</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3507,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.00749063670411985</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3542,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3560,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -3637,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3654,13 +3651,13 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0.009433962264150943</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.01886792452830189</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3675,19 +3672,19 @@
         <v>0</v>
       </c>
       <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
         <v>1</v>
-      </c>
-      <c r="K53">
-        <v>0.01886792452830189</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -3728,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3787,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3837,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3849,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0.9721254355400697</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3902,10 +3899,10 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -3955,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.1612903225806452</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="M58">
-        <v>0.1612903225806452</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3990,13 +3987,13 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4011,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4091,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4099,7 +4096,7 @@
         <v>76</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -4108,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4123,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -4132,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4182,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4235,16 +4232,16 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4288,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -4326,13 +4323,13 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -4347,13 +4344,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.9838709677419355</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>0.03225806451612903</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4409,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -4462,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -4518,19 +4515,19 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.9970703125</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4550,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0.006968641114982578</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.01742160278745645</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4568,19 +4565,19 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>0.9982578397212544</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>0.003484320557491289</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.001742160278745645</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4630,10 +4627,10 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -4662,13 +4659,13 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0.01515151515151515</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0.0303030303030303</v>
+        <v>0.015625</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4683,16 +4680,16 @@
         <v>0</v>
       </c>
       <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
         <v>1</v>
-      </c>
-      <c r="K71">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0.01515151515151515</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4751,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -4798,10 +4795,10 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -4851,22 +4848,22 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.004484304932735426</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>0.004484304932735426</v>
+        <v>0</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>0.004484304932735426</v>
+        <v>0</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4969,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0.974609375</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -5060,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.995656894679696</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5075,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.01194353963083605</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -5087,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -5143,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -5169,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.9596602972399151</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5237,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5249,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0.9596602972399151</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -5287,40 +5284,40 @@
         <v>0</v>
       </c>
       <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
         <v>1</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5334,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -5370,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -5420,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.02325581395348837</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -5443,7 +5440,7 @@
         <v>100</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.9940476190476191</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5452,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5508,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.9939393939393939</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5523,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.02121212121212121</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5765,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -5821,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -5853,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -5903,40 +5900,40 @@
         <v>0</v>
       </c>
       <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
         <v>1</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -5992,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -6151,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -6207,19 +6204,19 @@
         <v>0</v>
       </c>
       <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
         <v>1</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6275,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="R99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6295,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -6338,54 +6335,6 @@
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
       <c r="R101">
         <v>0</v>
       </c>
@@ -6394,7 +6343,7 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R102">
+      <c r="E102">
         <v>0</v>
       </c>
     </row>
@@ -6402,15 +6351,7 @@
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="A104" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R104">
+      <c r="R103">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>User_Journey_Matches with Employee Journey</t>
+  </si>
+  <si>
+    <t>User_Journey_Has User Processes</t>
   </si>
   <si>
     <t>User_Journey_Can Edit</t>
@@ -728,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0072992700729927</v>
+        <v>0.007117437722419928</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1585,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.004484304932735426</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1600,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.004484304932735426</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1615,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.004484304932735426</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3032,7 +3035,7 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>0.9963369963369964</v>
+        <v>0.9963898916967509</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3041,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.007326007326007326</v>
+        <v>0.007220216606498195</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -4409,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4459,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -4515,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -4565,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4621,16 +4624,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -4665,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4683,13 +4686,13 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4721,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4745,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4795,10 +4798,10 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>0.2017543859649123</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -4851,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -5084,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -5140,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -5166,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0.9596602972399151</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5222,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.9596602972399151</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5234,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5290,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5317,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5331,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0.02325581395348837</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -5367,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
         <v>1</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -5387,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -5423,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -5440,7 +5443,7 @@
         <v>100</v>
       </c>
       <c r="B85">
-        <v>0.9940476190476191</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5449,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5496,7 +5499,7 @@
         <v>101</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5505,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.02064896755162242</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5762,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -5818,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -5850,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -5906,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -5933,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -5989,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -6148,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -6204,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -6216,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6272,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="R99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6292,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -6335,6 +6338,54 @@
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
       <c r="R101">
         <v>0</v>
       </c>
@@ -6343,7 +6394,7 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E102">
+      <c r="R102">
         <v>0</v>
       </c>
     </row>
@@ -6351,7 +6402,15 @@
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R103">
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R104">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.007117437722419928</v>
+        <v>0.007067137809187279</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9978425026968716</v>
+        <v>0.9978700745473909</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0151024811218986</v>
+        <v>0.01490947816826411</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.001078748651564185</v>
+        <v>0.001064962726304579</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.004464285714285714</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.004464285714285714</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.004464285714285714</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.974609375</v>
+        <v>0.9745347698334965</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.9946062567421791</v>
+        <v>0.9968051118210862</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01186623516720604</v>
+        <v>0.01171458998935037</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.9970703125</v>
+        <v>0.9970617042115573</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.00390625</v>
+        <v>0.003917727717923604</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.00390625</v>
+        <v>0.003917727717923604</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2027,16 +2027,16 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>0.01742160278745645</v>
+        <v>0.01745200698080279</v>
       </c>
       <c r="C24">
-        <v>0.001742160278745645</v>
+        <v>0.001745200698080279</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9982578397212544</v>
+        <v>0.9982547993019197</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.003484320557491289</v>
+        <v>0.003490401396160559</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.006968641114982578</v>
+        <v>0.006980802792321117</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.9721254355400697</v>
+        <v>0.9720767888307156</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>0.9963898916967509</v>
+        <v>0.996415770609319</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.007220216606498195</v>
+        <v>0.007168458781362007</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.9596602972399151</v>
+        <v>0.9595744680851064</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>101</v>
       </c>
       <c r="B86">
-        <v>0.9911504424778761</v>
+        <v>0.997134670487106</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.02064896755162242</v>
+        <v>0.02005730659025788</v>
       </c>
       <c r="F86">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9745347698334965</v>
+        <v>0.974559686888454</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.9970617042115573</v>
+        <v>0.9970645792563601</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.003917727717923604</v>
+        <v>0.003913894324853229</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.003917727717923604</v>
+        <v>0.003913894324853229</v>
       </c>
       <c r="P23">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9978700745473909</v>
+        <v>0.9978880675818373</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01490947816826411</v>
+        <v>0.01478352692713833</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.001064962726304579</v>
+        <v>0.001055966209081309</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.9968051118210862</v>
+        <v>0.996832101372756</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01171458998935037</v>
+        <v>0.0116156282998944</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>101</v>
       </c>
       <c r="B86">
-        <v>0.997134670487106</v>
+        <v>0.9971590909090909</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.02005730659025788</v>
+        <v>0.01988636363636364</v>
       </c>
       <c r="F86">
         <v>0</v>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -163,208 +163,205 @@
     <t>Department_Has Leader</t>
   </si>
   <si>
-    <t>Department_Belongs to Department_Class</t>
+    <t>Department_Belongs to Topic</t>
+  </si>
+  <si>
+    <t>Department_Approver</t>
+  </si>
+  <si>
+    <t>Department_Type</t>
+  </si>
+  <si>
+    <t>Capability_Capability</t>
+  </si>
+  <si>
+    <t>Capability_MC2 Link</t>
+  </si>
+  <si>
+    <t>Capability_Implements Strategy</t>
+  </si>
+  <si>
+    <t>Capability_Implemented by Process</t>
+  </si>
+  <si>
+    <t>Capability_Defined by Department</t>
+  </si>
+  <si>
+    <t>Capability_Belongs to Topic</t>
+  </si>
+  <si>
+    <t>Strategy_Strategy</t>
+  </si>
+  <si>
+    <t>Strategy_MC2 Link</t>
+  </si>
+  <si>
+    <t>Strategy_Implemented by Capabilities</t>
+  </si>
+  <si>
+    <t>Strategy_Can Edit</t>
+  </si>
+  <si>
+    <t>Country_Country</t>
+  </si>
+  <si>
+    <t>Country_MC2 Link</t>
+  </si>
+  <si>
+    <t>Country_Has Business Model</t>
+  </si>
+  <si>
+    <t>Country_Has Car Models</t>
+  </si>
+  <si>
+    <t>Country_Has City</t>
+  </si>
+  <si>
+    <t>Business_Model_Business_Model</t>
+  </si>
+  <si>
+    <t>Business_Model_MC2 Link</t>
+  </si>
+  <si>
+    <t>Business_Model_Availble in Countries</t>
+  </si>
+  <si>
+    <t>Business_Model_Has User Journey Parts</t>
+  </si>
+  <si>
+    <t>Business_Model_Has Employee Journey Part</t>
+  </si>
+  <si>
+    <t>Department_Category_Department_Category</t>
+  </si>
+  <si>
+    <t>Department_Category_MC2 Link</t>
+  </si>
+  <si>
+    <t>Department_Category_Has Departments</t>
+  </si>
+  <si>
+    <t>User_Journey_User_Journey</t>
+  </si>
+  <si>
+    <t>User_Journey_MC2 Link</t>
+  </si>
+  <si>
+    <t>User_Journey_Is Part of Business Model</t>
+  </si>
+  <si>
+    <t>User_Journey_Matches with Employee Journey</t>
+  </si>
+  <si>
+    <t>User_Journey_Has User Processes</t>
+  </si>
+  <si>
+    <t>User_Journey_Can Edit</t>
+  </si>
+  <si>
+    <t>Process_Category_Process_Category</t>
+  </si>
+  <si>
+    <t>Process_Category_MC2 Link</t>
+  </si>
+  <si>
+    <t>Process_Category_For Business Model</t>
+  </si>
+  <si>
+    <t>Process_Category_For User Journey</t>
+  </si>
+  <si>
+    <t>User_Process_User_Process</t>
+  </si>
+  <si>
+    <t>User_Process_MC2 Link</t>
+  </si>
+  <si>
+    <t>User_Process_Belongs to User Journey Part</t>
+  </si>
+  <si>
+    <t>User_Process_Process Flow</t>
+  </si>
+  <si>
+    <t>User_Process_Process Summary</t>
+  </si>
+  <si>
+    <t>User_Process_Related Document</t>
+  </si>
+  <si>
+    <t>User_Process_Can Edit</t>
+  </si>
+  <si>
+    <t>City_City</t>
+  </si>
+  <si>
+    <t>City_MC2 Link</t>
+  </si>
+  <si>
+    <t>City_Has Employees</t>
+  </si>
+  <si>
+    <t>City_Is Part of</t>
+  </si>
+  <si>
+    <t>City_Has Facility</t>
+  </si>
+  <si>
+    <t>System_System</t>
+  </si>
+  <si>
+    <t>System_MC2 Link</t>
+  </si>
+  <si>
+    <t>System_Used By Process</t>
+  </si>
+  <si>
+    <t>System_Link Prod Link</t>
+  </si>
+  <si>
+    <t>System_Link STG Link</t>
+  </si>
+  <si>
+    <t>System_Link Manual</t>
+  </si>
+  <si>
+    <t>System_Can Edit</t>
+  </si>
+  <si>
+    <t>Car_Car</t>
+  </si>
+  <si>
+    <t>Car_MC2 Link</t>
+  </si>
+  <si>
+    <t>Car_Available in Country</t>
+  </si>
+  <si>
+    <t>Facility_Facility</t>
+  </si>
+  <si>
+    <t>Facility_MC2 Link</t>
+  </si>
+  <si>
+    <t>Facility_Location</t>
+  </si>
+  <si>
+    <t>Facility_Can Test Drive</t>
+  </si>
+  <si>
+    <t>Facility_Belongs to City</t>
+  </si>
+  <si>
+    <t>Topic_Topic</t>
+  </si>
+  <si>
+    <t>Topic_MC2 Link</t>
+  </si>
+  <si>
+    <t>Topic_For Capability</t>
   </si>
   <si>
     <t>Department_Capability</t>
-  </si>
-  <si>
-    <t>Department_Belongs to Topic</t>
-  </si>
-  <si>
-    <t>Department_Approver</t>
-  </si>
-  <si>
-    <t>Department_Type</t>
-  </si>
-  <si>
-    <t>Capability_Capability</t>
-  </si>
-  <si>
-    <t>Capability_MC2 Link</t>
-  </si>
-  <si>
-    <t>Capability_Implements Strategy</t>
-  </si>
-  <si>
-    <t>Capability_Implemented by Process</t>
-  </si>
-  <si>
-    <t>Capability_Defined by Department</t>
-  </si>
-  <si>
-    <t>Capability_Belongs to Topic</t>
-  </si>
-  <si>
-    <t>Strategy_Strategy</t>
-  </si>
-  <si>
-    <t>Strategy_MC2 Link</t>
-  </si>
-  <si>
-    <t>Strategy_Implemented by Capabilities</t>
-  </si>
-  <si>
-    <t>Strategy_Can Edit</t>
-  </si>
-  <si>
-    <t>Country_Country</t>
-  </si>
-  <si>
-    <t>Country_MC2 Link</t>
-  </si>
-  <si>
-    <t>Country_Has Business Model</t>
-  </si>
-  <si>
-    <t>Country_Has Car Models</t>
-  </si>
-  <si>
-    <t>Country_Has City</t>
-  </si>
-  <si>
-    <t>Business_Model_Business_Model</t>
-  </si>
-  <si>
-    <t>Business_Model_MC2 Link</t>
-  </si>
-  <si>
-    <t>Business_Model_Availble in Countries</t>
-  </si>
-  <si>
-    <t>Business_Model_Has User Journey Parts</t>
-  </si>
-  <si>
-    <t>Business_Model_Has Employee Journey Part</t>
-  </si>
-  <si>
-    <t>Department_Category_Department_Category</t>
-  </si>
-  <si>
-    <t>Department_Category_MC2 Link</t>
-  </si>
-  <si>
-    <t>Department_Category_Has Departments</t>
-  </si>
-  <si>
-    <t>User_Journey_User_Journey</t>
-  </si>
-  <si>
-    <t>User_Journey_MC2 Link</t>
-  </si>
-  <si>
-    <t>User_Journey_Is Part of Business Model</t>
-  </si>
-  <si>
-    <t>User_Journey_Matches with Employee Journey</t>
-  </si>
-  <si>
-    <t>User_Journey_Has User Processes</t>
-  </si>
-  <si>
-    <t>User_Journey_Can Edit</t>
-  </si>
-  <si>
-    <t>Process_Category_Process_Category</t>
-  </si>
-  <si>
-    <t>Process_Category_MC2 Link</t>
-  </si>
-  <si>
-    <t>Process_Category_For Business Model</t>
-  </si>
-  <si>
-    <t>Process_Category_For User Journey</t>
-  </si>
-  <si>
-    <t>User_Process_User_Process</t>
-  </si>
-  <si>
-    <t>User_Process_MC2 Link</t>
-  </si>
-  <si>
-    <t>User_Process_Belongs to User Journey Part</t>
-  </si>
-  <si>
-    <t>User_Process_Process Flow</t>
-  </si>
-  <si>
-    <t>User_Process_Process Summary</t>
-  </si>
-  <si>
-    <t>User_Process_Related Document</t>
-  </si>
-  <si>
-    <t>User_Process_Can Edit</t>
-  </si>
-  <si>
-    <t>City_City</t>
-  </si>
-  <si>
-    <t>City_MC2 Link</t>
-  </si>
-  <si>
-    <t>City_Has Employees</t>
-  </si>
-  <si>
-    <t>City_Is Part of</t>
-  </si>
-  <si>
-    <t>City_Has Facility</t>
-  </si>
-  <si>
-    <t>System_System</t>
-  </si>
-  <si>
-    <t>System_MC2 Link</t>
-  </si>
-  <si>
-    <t>System_Used By Process</t>
-  </si>
-  <si>
-    <t>System_Link Prod Link</t>
-  </si>
-  <si>
-    <t>System_Link STG Link</t>
-  </si>
-  <si>
-    <t>System_Link Manual</t>
-  </si>
-  <si>
-    <t>System_Can Edit</t>
-  </si>
-  <si>
-    <t>Car_Car</t>
-  </si>
-  <si>
-    <t>Car_MC2 Link</t>
-  </si>
-  <si>
-    <t>Car_Available in Country</t>
-  </si>
-  <si>
-    <t>Facility_Facility</t>
-  </si>
-  <si>
-    <t>Facility_MC2 Link</t>
-  </si>
-  <si>
-    <t>Facility_Location</t>
-  </si>
-  <si>
-    <t>Facility_Can Test Drive</t>
-  </si>
-  <si>
-    <t>Facility_Belongs to City</t>
-  </si>
-  <si>
-    <t>Topic_Topic</t>
-  </si>
-  <si>
-    <t>Topic_MC2 Link</t>
-  </si>
-  <si>
-    <t>Topic_For Capability</t>
   </si>
   <si>
     <t>Department_Belongs_to_Topic</t>
@@ -731,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.007067137809187279</v>
+        <v>0.006968641114982578</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1134,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9978880675818373</v>
+        <v>0.9979057591623036</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1155,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01478352692713833</v>
+        <v>0.01465968586387435</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1170,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.001055966209081309</v>
+        <v>0.001047120418848168</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1588,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.004444444444444444</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1603,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.004444444444444444</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1618,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.004444444444444444</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1803,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.996832101372756</v>
+        <v>0.9968586387434555</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1812,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0116156282998944</v>
+        <v>0.01151832460732984</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2590,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.1612903225806452</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.1612903225806452</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2611,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2747,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2767,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2879,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2923,7 +2920,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.9964539007092199</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2932,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2979,7 +2976,7 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2988,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3003,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3012,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3035,7 +3032,7 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>0.996415770609319</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3044,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.007168458781362007</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3083,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3091,7 +3088,7 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3100,14 +3097,14 @@
         <v>0</v>
       </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>1</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
@@ -3115,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3124,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3195,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3215,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.984375</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3327,13 +3324,13 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.984375</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3445,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3525,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3560,22 +3557,22 @@
         <v>0</v>
       </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
         <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -3616,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3637,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -3687,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -3725,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3790,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3837,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3846,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3878,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3899,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3958,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0.05607476635514019</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0.5514018691588785</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -3987,16 +3984,16 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C59">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.1818181818181818</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4011,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4020,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4070,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -4099,7 +4096,7 @@
         <v>76</v>
       </c>
       <c r="B61">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -4108,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0.9838709677419355</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4123,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -4132,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4176,16 +4173,16 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4238,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4288,19 +4285,19 @@
         <v>0</v>
       </c>
       <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
         <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4350,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4406,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4512,16 +4509,16 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -4574,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -4612,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4624,19 +4621,19 @@
         <v>0</v>
       </c>
       <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
         <v>1</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4686,10 +4683,10 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -4724,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4742,13 +4739,13 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4854,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>0.2017543859649123</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -5031,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -5113,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.9595744680851064</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5143,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -5181,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5225,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.9595744680851064</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5264,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5278,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -5293,28 +5290,28 @@
         <v>0</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
         <v>1</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -5376,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -5387,16 +5384,16 @@
         <v>99</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.9971910112359551</v>
       </c>
       <c r="C84">
-        <v>0.02272727272727273</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.01966292134831461</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5426,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -5499,7 +5496,7 @@
         <v>101</v>
       </c>
       <c r="B86">
-        <v>0.9971590909090909</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5508,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.01988636363636364</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5709,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -5797,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -5821,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -5880,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5909,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -5992,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -6095,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -6163,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6207,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -6239,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -6275,62 +6272,14 @@
         <v>0</v>
       </c>
       <c r="R99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
       <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
         <v>0</v>
       </c>
     </row>
@@ -6338,54 +6287,6 @@
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
       <c r="R101">
         <v>0</v>
       </c>
@@ -6394,7 +6295,7 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R102">
+      <c r="E102">
         <v>0</v>
       </c>
     </row>
@@ -6402,15 +6303,7 @@
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="A104" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="R104">
+      <c r="R103">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Employee_Process</t>
   </si>
@@ -109,6 +109,9 @@
     <t>Employee_Process_Workflow Status</t>
   </si>
   <si>
+    <t>Employee_Process_Department</t>
+  </si>
+  <si>
     <t>Role_Role</t>
   </si>
   <si>
@@ -163,6 +166,12 @@
     <t>Department_Has Leader</t>
   </si>
   <si>
+    <t>Department_Belongs to Department_Class</t>
+  </si>
+  <si>
+    <t>Department_Capability</t>
+  </si>
+  <si>
     <t>Department_Belongs to Topic</t>
   </si>
   <si>
@@ -359,9 +368,6 @@
   </si>
   <si>
     <t>Topic_For Capability</t>
-  </si>
-  <si>
-    <t>Department_Capability</t>
   </si>
   <si>
     <t>Department_Belongs_to_Topic</t>
@@ -728,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1131,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9979057591623036</v>
+        <v>0.9979123173277662</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1152,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01465968586387435</v>
+        <v>0.01461377870563674</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1167,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.001047120418848168</v>
+        <v>0.00104384133611691</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1579,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.004405286343612335</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1600,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.004405286343612335</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1615,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.004405286343612335</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1635,13 +1641,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1656,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1671,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1694,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.974559686888454</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1750,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.9745845552297165</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1800,7 +1806,7 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.9968586387434555</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1809,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01151832460732984</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1856,16 +1862,16 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.9968684759916493</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.01148225469728601</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1918,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1971,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.9970645792563601</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1992,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.003913894324853229</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2007,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.003913894324853229</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2024,16 +2030,16 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>0.01745200698080279</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.001745200698080279</v>
+        <v>0.9970674486803519</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9982547993019197</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2048,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.003490401396160559</v>
+        <v>0.003910068426197458</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2057,13 +2063,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.006980802792321117</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.003910068426197458</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2080,16 +2086,16 @@
         <v>40</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.01745200698080279</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.001745200698080279</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.9982547993019197</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2104,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.003490401396160559</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2113,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.006980802792321117</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2136,16 +2142,16 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.01515151515151515</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2160,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2169,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.01515151515151515</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2192,16 +2198,16 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2216,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2225,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2284,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2304,16 +2310,16 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>0.01886792452830189</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.009433962264150943</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2328,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.01886792452830189</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2337,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.009433962264150943</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2360,16 +2366,16 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2384,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2393,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2425,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2478,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.9720767888307156</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2534,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.9720767888307156</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2590,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2643,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2664,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2764,43 +2770,43 @@
         <v>0</v>
       </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2879,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2920,7 +2926,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.9964539007092199</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2929,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.007092198581560284</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2976,7 +2982,7 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2985,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3000,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3009,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3047,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3080,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3088,7 +3094,7 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.9964539007092199</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3097,13 +3103,13 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3144,7 +3150,7 @@
         <v>59</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3153,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3168,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3177,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3212,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.984375</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3248,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3271,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3330,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3380,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.984375</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3445,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3498,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3522,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3572,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -3690,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -3722,25 +3728,25 @@
         <v>0</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
         <v>1</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -3781,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3843,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0.05607476635514019</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0.5514018691588785</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3875,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3890,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3955,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -3984,7 +3990,7 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3993,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.9838709677419355</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4008,16 +4014,16 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="M59">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4043,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4064,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -4152,7 +4158,7 @@
         <v>77</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -4161,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4173,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4185,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4235,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0.02857142857142857</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4297,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4341,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -4403,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -4465,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4509,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4571,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="K69">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="L69">
         <v>1</v>
-      </c>
-      <c r="L69">
-        <v>0.02857142857142857</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -4609,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4633,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4677,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4742,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="L72">
-        <v>0.2017543859649123</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -4777,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4801,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4907,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -5028,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -5110,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0.9595744680851064</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5178,25 +5184,25 @@
         <v>0</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
         <v>1</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -5261,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5275,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0.02173913043478261</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.9595744680851064</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5311,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -5346,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -5384,7 +5390,7 @@
         <v>99</v>
       </c>
       <c r="B84">
-        <v>0.9971910112359551</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5393,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.01966292134831461</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5429,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -5443,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -5479,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -5552,7 +5558,7 @@
         <v>102</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.9972067039106145</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5561,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.01955307262569832</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5706,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -5794,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -5874,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5962,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6045,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -6092,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -6160,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6236,31 +6242,31 @@
         <v>0</v>
       </c>
       <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
         <v>1</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -6279,14 +6285,110 @@
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
       <c r="F100">
         <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
       <c r="R101">
         <v>0</v>
       </c>
@@ -6295,7 +6397,55 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
       <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
         <v>0</v>
       </c>
     </row>
@@ -6304,6 +6454,22 @@
         <v>118</v>
       </c>
       <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R105">
         <v>0</v>
       </c>
     </row>

--- a/wlink.xlsx
+++ b/wlink.xlsx
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.006968641114982578</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9979123173277662</v>
+        <v>0.9979296066252588</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01461377870563674</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.00104384133611691</v>
+        <v>0.0010351966873706</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.9933774834437086</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.004385964912280702</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.004385964912280702</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.004385964912280702</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9745845552297165</v>
+        <v>0.9738878143133463</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>0.9968684759916493</v>
+        <v>0.9958592132505176</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01148225469728601</v>
+        <v>0.0113871635610766</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.9970674486803519</v>
+        <v>0.9970986460348162</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.003910068426197458</v>
+        <v>0.003868471953578337</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.003910068426197458</v>
+        <v>0.003868471953578337</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>40</v>
       </c>
       <c r="B25">
-        <v>0.01745200698080279</v>
+        <v>0.01730103806228374</v>
       </c>
       <c r="C25">
-        <v>0.001745200698080279</v>
+        <v>0.001730103806228374</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.9982547993019197</v>
+        <v>0.9982698961937716</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.003490401396160559</v>
+        <v>0.003460207612456748</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.006980802792321117</v>
+        <v>0.006920415224913495</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2198,10 +2198,10 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C27">
-        <v>0.01515151515151515</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.01515151515151515</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.9720767888307156</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <v>0.9964539007092199</v>
+        <v>0.9929328621908127</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.007092198581560284</v>
+        <v>0.007067137809187279</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>102</v>
       </c>
       <c r="B87">
-        <v>0.9972067039106145</v>
+        <v>0.9944289693593314</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.01955307262569832</v>
+        <v>0.01949860724233983</v>
       </c>
       <c r="F87">
         <v>0</v>
